--- a/StructureDefinition-ext-R5-DeviceDefinition.udi.marketDistribution.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.udi.marketDistribution.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `DeviceDefinition.udiDeviceIdentifier.marketDistribution` 0..* `BackboneElement`
 Following are the generation technical comments:
 Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` is will have a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -141,7 +141,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:DeviceDefinition.udiDeviceIdentifier</t>
   </si>
   <si>
     <t>ID</t>
@@ -343,7 +343,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.marketPeriod` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` requires a cross-version extension.
-Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.marketPeriod` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.marketPeriod` is will have a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:marketPeriod.id</t>
@@ -426,7 +426,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.subJurisdiction` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` requires a cross-version extension.
-Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.subJurisdiction` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.subJurisdiction` is will have a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:subJurisdiction.id</t>
@@ -788,7 +788,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="185.76953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="188.36328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
